--- a/data/profiles/xlsx/bluff/profile 21-3 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 21-3 graph.xlsx
@@ -1938,11 +1938,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="68798915"/>
-        <c:axId val="53415188"/>
+        <c:axId val="6219396"/>
+        <c:axId val="21544891"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68798915"/>
+        <c:axId val="6219396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,12 +1977,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53415188"/>
+        <c:crossAx val="21544891"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53415188"/>
+        <c:axId val="21544891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,7 +2026,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68798915"/>
+        <c:crossAx val="6219396"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
